--- a/REGULAR/OJT/EMELO MARY JANE.xlsx
+++ b/REGULAR/OJT/EMELO MARY JANE.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\NEW DONE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\OJT\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="369">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="369">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1832,8 +1832,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K516" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
-  <autoFilter ref="A8:K516"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K517" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+  <autoFilter ref="A8:K517"/>
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
@@ -2162,12 +2162,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K516"/>
+  <dimension ref="A2:K517"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A472" activePane="bottomLeft"/>
       <selection activeCell="B8" sqref="B8"/>
-      <selection pane="bottomLeft" activeCell="K486" sqref="K486"/>
+      <selection pane="bottomLeft" activeCell="I487" sqref="I487"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2330,7 +2330,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>90.991999999999962</v>
+        <v>92.241999999999962</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -2340,7 +2340,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>25.5</v>
+        <v>24.75</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -13138,13 +13138,15 @@
       <c r="B484" s="20" t="s">
         <v>165</v>
       </c>
-      <c r="C484" s="13"/>
+      <c r="C484" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D484" s="39"/>
       <c r="E484" s="9"/>
       <c r="F484" s="20"/>
-      <c r="G484" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G484" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H484" s="39"/>
       <c r="I484" s="9"/>
@@ -13179,7 +13181,9 @@
       <c r="A486" s="40">
         <v>45108</v>
       </c>
-      <c r="B486" s="20"/>
+      <c r="B486" s="20" t="s">
+        <v>99</v>
+      </c>
       <c r="C486" s="13"/>
       <c r="D486" s="39"/>
       <c r="E486" s="9"/>
@@ -13188,16 +13192,20 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H486" s="39"/>
+      <c r="H486" s="39">
+        <v>1</v>
+      </c>
       <c r="I486" s="9"/>
       <c r="J486" s="11"/>
-      <c r="K486" s="20"/>
+      <c r="K486" s="49">
+        <v>45124</v>
+      </c>
     </row>
     <row r="487" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A487" s="40">
-        <v>45139</v>
-      </c>
-      <c r="B487" s="20"/>
+      <c r="A487" s="40"/>
+      <c r="B487" s="20" t="s">
+        <v>99</v>
+      </c>
       <c r="C487" s="13"/>
       <c r="D487" s="39"/>
       <c r="E487" s="9"/>
@@ -13206,14 +13214,18 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H487" s="39"/>
+      <c r="H487" s="39">
+        <v>1</v>
+      </c>
       <c r="I487" s="9"/>
       <c r="J487" s="11"/>
-      <c r="K487" s="20"/>
+      <c r="K487" s="49">
+        <v>45131</v>
+      </c>
     </row>
     <row r="488" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A488" s="40">
-        <v>45170</v>
+        <v>45139</v>
       </c>
       <c r="B488" s="20"/>
       <c r="C488" s="13"/>
@@ -13231,7 +13243,7 @@
     </row>
     <row r="489" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A489" s="40">
-        <v>45200</v>
+        <v>45170</v>
       </c>
       <c r="B489" s="20"/>
       <c r="C489" s="13"/>
@@ -13249,7 +13261,7 @@
     </row>
     <row r="490" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A490" s="40">
-        <v>45231</v>
+        <v>45200</v>
       </c>
       <c r="B490" s="20"/>
       <c r="C490" s="13"/>
@@ -13267,7 +13279,7 @@
     </row>
     <row r="491" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A491" s="40">
-        <v>45261</v>
+        <v>45231</v>
       </c>
       <c r="B491" s="20"/>
       <c r="C491" s="13"/>
@@ -13285,7 +13297,7 @@
     </row>
     <row r="492" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A492" s="40">
-        <v>45292</v>
+        <v>45261</v>
       </c>
       <c r="B492" s="20"/>
       <c r="C492" s="13"/>
@@ -13303,7 +13315,7 @@
     </row>
     <row r="493" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A493" s="40">
-        <v>45323</v>
+        <v>45292</v>
       </c>
       <c r="B493" s="20"/>
       <c r="C493" s="13"/>
@@ -13321,7 +13333,7 @@
     </row>
     <row r="494" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A494" s="40">
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="B494" s="20"/>
       <c r="C494" s="13"/>
@@ -13339,7 +13351,7 @@
     </row>
     <row r="495" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A495" s="40">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B495" s="20"/>
       <c r="C495" s="13"/>
@@ -13357,7 +13369,7 @@
     </row>
     <row r="496" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A496" s="40">
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="B496" s="20"/>
       <c r="C496" s="13"/>
@@ -13375,7 +13387,7 @@
     </row>
     <row r="497" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A497" s="40">
-        <v>45444</v>
+        <v>45413</v>
       </c>
       <c r="B497" s="20"/>
       <c r="C497" s="13"/>
@@ -13393,7 +13405,7 @@
     </row>
     <row r="498" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A498" s="40">
-        <v>45474</v>
+        <v>45444</v>
       </c>
       <c r="B498" s="20"/>
       <c r="C498" s="13"/>
@@ -13411,7 +13423,7 @@
     </row>
     <row r="499" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A499" s="40">
-        <v>45505</v>
+        <v>45474</v>
       </c>
       <c r="B499" s="20"/>
       <c r="C499" s="13"/>
@@ -13429,7 +13441,7 @@
     </row>
     <row r="500" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A500" s="40">
-        <v>45536</v>
+        <v>45505</v>
       </c>
       <c r="B500" s="20"/>
       <c r="C500" s="13"/>
@@ -13446,7 +13458,9 @@
       <c r="K500" s="20"/>
     </row>
     <row r="501" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A501" s="40"/>
+      <c r="A501" s="40">
+        <v>45536</v>
+      </c>
       <c r="B501" s="20"/>
       <c r="C501" s="13"/>
       <c r="D501" s="39"/>
@@ -13686,20 +13700,36 @@
       <c r="K515" s="20"/>
     </row>
     <row r="516" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A516" s="41"/>
-      <c r="B516" s="15"/>
-      <c r="C516" s="42"/>
-      <c r="D516" s="43"/>
+      <c r="A516" s="40"/>
+      <c r="B516" s="20"/>
+      <c r="C516" s="13"/>
+      <c r="D516" s="39"/>
       <c r="E516" s="9"/>
-      <c r="F516" s="15"/>
-      <c r="G516" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H516" s="43"/>
+      <c r="F516" s="20"/>
+      <c r="G516" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H516" s="39"/>
       <c r="I516" s="9"/>
-      <c r="J516" s="12"/>
-      <c r="K516" s="15"/>
+      <c r="J516" s="11"/>
+      <c r="K516" s="20"/>
+    </row>
+    <row r="517" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A517" s="41"/>
+      <c r="B517" s="15"/>
+      <c r="C517" s="42"/>
+      <c r="D517" s="43"/>
+      <c r="E517" s="9"/>
+      <c r="F517" s="15"/>
+      <c r="G517" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H517" s="43"/>
+      <c r="I517" s="9"/>
+      <c r="J517" s="12"/>
+      <c r="K517" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -13864,7 +13894,7 @@
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <f>SUM(Sheet1!E9,Sheet1!I9)</f>
-        <v>116.49199999999996</v>
+        <v>116.99199999999996</v>
       </c>
       <c r="C7" s="37">
         <v>1</v>
